--- a/Resource/excel/achieve.xlsx
+++ b/Resource/excel/achieve.xlsx
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -249,15 +249,84 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>player</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>diamond</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"toastcount":{"toastcount":"1"}}]</t>
+    <t>[{"money":{"money":"50"}}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":{"money":"100"}}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":{"money":"500"}}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":{"money":"1000"}}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>victory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":{"money":"300"}}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":{"money":"600"}}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":{"money":"950"}}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topten</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalscore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":{"money":"150"}}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":{"money":"250"}}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":{"money":"500"}}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":{"money":"200"}}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"money":{"money":"700"}}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -341,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -364,11 +433,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -383,6 +465,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N5"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="C8:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -678,7 +763,7 @@
     <col min="14" max="14" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -719,7 +804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:14" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
@@ -760,11 +845,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -772,40 +857,670 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1">
+        <v>11</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>100</v>
+      </c>
+      <c r="M5" s="1">
+        <v>11</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>500</v>
+      </c>
+      <c r="M6" s="1">
+        <v>11</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="1">
+        <v>11</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>11</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>11</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>20</v>
+      </c>
+      <c r="M10" s="1">
+        <v>11</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
         <v>50</v>
       </c>
-      <c r="M4" s="1">
-        <v>11</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="M11" s="1">
+        <v>11</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>10</v>
+      </c>
+      <c r="M12" s="1">
+        <v>11</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>35</v>
+      </c>
+      <c r="M13" s="1">
+        <v>11</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>150</v>
+      </c>
+      <c r="M14" s="1">
+        <v>11</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>300</v>
+      </c>
+      <c r="M15" s="1">
+        <v>11</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>11</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>10</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>5</v>
+      </c>
+      <c r="M17" s="1">
+        <v>11</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>20</v>
+      </c>
+      <c r="M18" s="1">
+        <v>11</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>30</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>30</v>
+      </c>
+      <c r="M19" s="1">
+        <v>11</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resource/excel/achieve.xlsx
+++ b/Resource/excel/achieve.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="achieve" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -326,6 +326,14 @@
   </si>
   <si>
     <t>[{"money":{"money":"700"}}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HandleType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -446,11 +454,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -468,6 +487,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -750,20 +772,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="C8:K20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="13" width="20.625" customWidth="1"/>
-    <col min="14" max="14" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="20.625" customWidth="1"/>
+    <col min="15" max="15" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -771,40 +793,43 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
@@ -812,61 +837,64 @@
         <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G3" s="5"/>
+    <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -878,37 +906,40 @@
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
         <v>30</v>
       </c>
-      <c r="M4" s="1">
-        <v>11</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="1">
+        <v>11</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -920,20 +951,23 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
         <v>100</v>
       </c>
-      <c r="M5" s="1">
-        <v>11</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="1">
+        <v>11</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>3</v>
@@ -941,17 +975,17 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -963,19 +997,22 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
         <v>500</v>
       </c>
-      <c r="M6" s="1">
-        <v>11</v>
-      </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="1">
+        <v>11</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>4</v>
@@ -983,17 +1020,17 @@
       <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -1005,19 +1042,22 @@
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
         <v>1000</v>
       </c>
-      <c r="M7" s="1">
-        <v>11</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="1">
+        <v>11</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>5</v>
@@ -1025,17 +1065,17 @@
       <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -1047,19 +1087,22 @@
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
       </c>
       <c r="M8" s="1">
-        <v>11</v>
-      </c>
-      <c r="N8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>11</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>6</v>
@@ -1067,17 +1110,17 @@
       <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -1089,19 +1132,22 @@
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
         <v>5</v>
       </c>
-      <c r="M9" s="1">
-        <v>11</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="1">
+        <v>11</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>7</v>
@@ -1109,17 +1155,17 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -1131,19 +1177,22 @@
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
         <v>20</v>
       </c>
-      <c r="M10" s="1">
-        <v>11</v>
-      </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="1">
+        <v>11</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
         <v>8</v>
@@ -1151,17 +1200,17 @@
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -1173,19 +1222,22 @@
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
         <v>50</v>
       </c>
-      <c r="M11" s="1">
-        <v>11</v>
-      </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="1">
+        <v>11</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
         <v>9</v>
@@ -1193,17 +1245,17 @@
       <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -1215,19 +1267,22 @@
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
         <v>10</v>
       </c>
-      <c r="M12" s="1">
-        <v>11</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="1">
+        <v>11</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>10</v>
@@ -1235,17 +1290,17 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1257,19 +1312,22 @@
         <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
         <v>35</v>
       </c>
-      <c r="M13" s="1">
-        <v>11</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="1">
+        <v>11</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>11</v>
@@ -1277,17 +1335,17 @@
       <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1299,19 +1357,22 @@
         <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
         <v>150</v>
       </c>
-      <c r="M14" s="1">
-        <v>11</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="1">
+        <v>11</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>12</v>
@@ -1319,17 +1380,17 @@
       <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -1341,19 +1402,22 @@
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
         <v>300</v>
       </c>
-      <c r="M15" s="1">
-        <v>11</v>
-      </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="1">
+        <v>11</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>13</v>
@@ -1361,41 +1425,44 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
         <v>2</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>10</v>
       </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
         <v>1</v>
       </c>
       <c r="M16" s="1">
-        <v>11</v>
-      </c>
-      <c r="N16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>11</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1">
         <v>14</v>
@@ -1403,41 +1470,44 @@
       <c r="C17" s="1">
         <v>0</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
         <v>2</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>10</v>
       </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
         <v>5</v>
       </c>
-      <c r="M17" s="1">
-        <v>11</v>
-      </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="1">
+        <v>11</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1">
         <v>15</v>
@@ -1445,41 +1515,44 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
         <v>2</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>10</v>
       </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
         <v>20</v>
       </c>
-      <c r="M18" s="1">
-        <v>11</v>
-      </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="1">
+        <v>11</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1">
         <v>16</v>
@@ -1487,37 +1560,78 @@
       <c r="C19" s="1">
         <v>0</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>3</v>
       </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
       <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
         <v>2</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>30</v>
       </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
         <v>30</v>
       </c>
-      <c r="M19" s="1">
-        <v>11</v>
-      </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="1">
+        <v>11</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="7">
+        <v>17</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+      <c r="G20" s="7">
+        <v>3</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>10</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>1</v>
+      </c>
+      <c r="M20" s="7">
+        <v>10</v>
+      </c>
+      <c r="N20" s="7">
+        <v>11</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>27</v>
       </c>
     </row>
